--- a/data/trans_camb/P16A13-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 4,27</t>
+          <t>-1,43; 4,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,86</t>
+          <t>-1,59; 3,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 6,6</t>
+          <t>1,59; 7,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,56</t>
+          <t>1,18; 7,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,2</t>
+          <t>-1,08; 4,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,69</t>
+          <t>0,11; 4,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,65</t>
+          <t>0,17; 4,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,11</t>
+          <t>-0,55; 3,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,88</t>
+          <t>1,51; 4,86</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,95; 201,17</t>
+          <t>-39,72; 229,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 180,07</t>
+          <t>-40,82; 184,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,11; 333,55</t>
+          <t>28,78; 377,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,86; 1114,28</t>
+          <t>21,2; 833,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,86; 535,94</t>
+          <t>-51,47; 499,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 599,31</t>
+          <t>-2,25; 468,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 250,89</t>
+          <t>-0,2; 237,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 155,48</t>
+          <t>-18,44; 186,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,85; 267,62</t>
+          <t>39,32; 259,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,63</t>
+          <t>-1,48; 3,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,37</t>
+          <t>-1,38; 3,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,2</t>
+          <t>0,99; 6,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 5,1</t>
+          <t>-0,91; 5,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,5</t>
+          <t>-1,34; 4,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,04</t>
+          <t>-0,71; 4,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,34</t>
+          <t>-0,66; 3,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,13</t>
+          <t>-0,8; 3,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,61</t>
+          <t>0,98; 4,55</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,43; 307,87</t>
+          <t>-50,16; 351,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,34; 273,43</t>
+          <t>-48,84; 298,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,36; 498,89</t>
+          <t>15,91; 497,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 269,47</t>
+          <t>-29,1; 289,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 240,95</t>
+          <t>-40,79; 234,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 225,71</t>
+          <t>-19,08; 240,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 189,73</t>
+          <t>-22,89; 181,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 161,71</t>
+          <t>-25,02; 162,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,15; 263,97</t>
+          <t>24,12; 261,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,11</t>
+          <t>-0,58; 3,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,81</t>
+          <t>-1,13; 2,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,78</t>
+          <t>-1,21; 6,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 3,48</t>
+          <t>-5,47; 3,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 6,75</t>
+          <t>-4,25; 6,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 10,63</t>
+          <t>0,93; 10,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,61</t>
+          <t>-0,89; 2,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,06</t>
+          <t>-1,01; 2,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,85</t>
+          <t>-0,47; 6,9</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 208,76</t>
+          <t>-26,69; 228,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 211,69</t>
+          <t>-37,45; 207,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 381,25</t>
+          <t>-32,07; 387,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,81; 127,89</t>
+          <t>-68,3; 129,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,64; 213,22</t>
+          <t>-63,27; 227,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,34; 340,81</t>
+          <t>8,04; 350,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 125,42</t>
+          <t>-24,97; 139,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 139,93</t>
+          <t>-28,25; 136,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 265,7</t>
+          <t>-10,07; 275,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,04</t>
+          <t>0,64; 3,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,26</t>
+          <t>-2,31; 0,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,12</t>
+          <t>1,87; 4,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,68</t>
+          <t>-0,51; 3,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,73</t>
+          <t>-0,99; 2,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,95</t>
+          <t>-0,36; 4,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,3</t>
+          <t>0,63; 3,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,8</t>
+          <t>-1,31; 0,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,38</t>
+          <t>1,06; 4,51</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,84; 163,56</t>
+          <t>15,65; 158,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-61,29; 15,17</t>
+          <t>-60,17; 16,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>39,34; 215,56</t>
+          <t>49,94; 210,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 171,48</t>
+          <t>-16,21; 157,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 134,98</t>
+          <t>-26,79; 115,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 215,71</t>
+          <t>-3,6; 217,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,83; 130,94</t>
+          <t>15,34; 121,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,51; 33,19</t>
+          <t>-36,29; 33,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,4; 169,06</t>
+          <t>35,12; 177,03</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,37</t>
+          <t>-1,94; 3,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,4</t>
+          <t>-1,5; 3,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,09</t>
+          <t>1,42; 8,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,09</t>
+          <t>1,34; 6,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,51</t>
+          <t>-1,55; 2,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,56</t>
+          <t>4,62; 10,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,35</t>
+          <t>0,84; 4,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,3</t>
+          <t>-0,9; 2,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,67</t>
+          <t>4,4; 8,77</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 185,14</t>
+          <t>-43,93; 170,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 172,26</t>
+          <t>-34,55; 192,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14,66; 399,85</t>
+          <t>19,66; 406,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,49; 279,84</t>
+          <t>28,69; 297,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,63; 108,92</t>
+          <t>-38,53; 117,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>109,99; 514,57</t>
+          <t>116,13; 509,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,81; 191,59</t>
+          <t>17,64; 196,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 103,13</t>
+          <t>-24,34; 106,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>102,07; 370,14</t>
+          <t>103,04; 387,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,66</t>
+          <t>-0,43; 4,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,81</t>
+          <t>-1,45; 1,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,88</t>
+          <t>-0,83; 2,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,45</t>
+          <t>-1,17; 2,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,04</t>
+          <t>-1,79; 1,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,55</t>
+          <t>3,58; 7,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,14</t>
+          <t>-0,78; 2,17</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,44</t>
+          <t>-1,58; 1,39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,6; 5,82</t>
+          <t>2,49; 5,85</t>
         </is>
       </c>
     </row>
@@ -1881,37 +1881,37 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,21; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 63,71</t>
+          <t>-21,82; 61,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 53,06</t>
+          <t>-33,61; 49,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>60,84; 196,85</t>
+          <t>64,34; 197,46</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 69,38</t>
+          <t>-18,34; 65,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 46,77</t>
+          <t>-35,34; 44,93</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>53,39; 186,18</t>
+          <t>51,96; 184,39</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,42</t>
+          <t>0,55; 2,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,14</t>
+          <t>-0,57; 1,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,43</t>
+          <t>1,88; 4,47</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,79</t>
+          <t>0,68; 2,76</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,39</t>
+          <t>-0,39; 1,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,54</t>
+          <t>2,78; 5,41</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,26</t>
+          <t>0,92; 2,32</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,97</t>
+          <t>-0,24; 0,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,59</t>
+          <t>2,87; 4,72</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>14,81; 107,49</t>
+          <t>18,17; 106,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 52,61</t>
+          <t>-18,82; 46,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>60,25; 193,86</t>
+          <t>62,82; 193,92</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>15,45; 88,13</t>
+          <t>17,05; 87,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 43,36</t>
+          <t>-9,89; 47,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>74,25; 174,27</t>
+          <t>73,61; 173,09</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>25,88; 78,96</t>
+          <t>26,71; 80,08</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 34,7</t>
+          <t>-7,22; 34,76</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>80,71; 160,8</t>
+          <t>85,62; 166,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A13-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
